--- a/CraftEquipEncFix/package/LangMod/EN/CraftEquipEncFix_SourceCardEN.xlsx
+++ b/CraftEquipEncFix/package/LangMod/EN/CraftEquipEncFix_SourceCardEN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Thing" sheetId="9" r:id="rId1"/>
@@ -239,7 +239,7 @@
     <t>anvil</t>
   </si>
   <si>
-    <t>dagger,dagger</t>
+    <t>dagger,dagger,dagger</t>
   </si>
   <si>
     <t>iron</t>
@@ -248,7 +248,7 @@
     <t>metal</t>
   </si>
   <si>
-    <t>mod_chaser/10</t>
+    <t>mod_chaser/10,Beici/50</t>
   </si>
   <si>
     <t>Slash</t>
@@ -260,7 +260,7 @@
     <t>4,0</t>
   </si>
   <si>
-    <t>Inui_CCEF</t>
+    <t>Inui_CCEF,allowop,percentenchant\10,percentenchant\15,percentenchant\15</t>
   </si>
   <si>
     <t>小型の剣だ。</t>
@@ -940,7 +940,7 @@
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,9 +1001,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1284,13 +1281,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1468,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -1989,7 +1979,7 @@
       <c r="AY4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AZ4" s="23" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3233,7 +3223,7 @@
       <c r="AW27" s="14"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
-      <c r="AZ27" s="24"/>
+      <c r="AZ27" s="23"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="14"/>
